--- a/hotel-cloud-api/src/main/resources/二维码导入模版.xlsx
+++ b/hotel-cloud-api/src/main/resources/二维码导入模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aby/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aby/Desktop/hotel-cloud/hotel-cloud-api/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995E558-F6CB-1341-9DCF-C75E92F99D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01AFA0-493C-F942-9EAE-DCEAAED4C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2260" windowWidth="28240" windowHeight="17440" xr2:uid="{026D31CB-E0EC-A74F-9880-F300ED8FA8B5}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>二维码信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,17 +396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB54A35A-8D86-5242-81F8-07570A4A5A10}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
